--- a/medicine/Mort/Cimetière_du_Nord_(Munich)/Cimetière_du_Nord_(Munich).xlsx
+++ b/medicine/Mort/Cimetière_du_Nord_(Munich)/Cimetière_du_Nord_(Munich).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_du_Nord_(Munich)</t>
+          <t>Cimetière_du_Nord_(Munich)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le cimetière du Nord (Nordfriedhof), avec 34 000 tombes, est l'un des plus grands  de Munich. Créé en 1884 par l'ancienne municipalité de Schwabing, il se situe aujourd'hui dans le quartier de Schwabing-Freimann. Le Nordfriedhof comprend une chapelle, une morgue, un funérarium (conçus entre 1896 et 1899 par Hans Grässel) et un columbarium (conçu en 1962 par Eugen Jacoby).
 La chapelle est évoquée dans La Mort à Venise de Thomas Mann.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_du_Nord_(Munich)</t>
+          <t>Cimetière_du_Nord_(Munich)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Quelques personnalités enterrées au cimetière du Nord</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Franz Defregger
